--- a/BOM_Finalrev.xlsx
+++ b/BOM_Finalrev.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
   <si>
     <t>Per Unit</t>
   </si>
@@ -259,7 +259,7 @@
     <t>IR Reflective Sensor</t>
   </si>
   <si>
-    <t>Box build</t>
+    <t>Sorter</t>
   </si>
   <si>
     <t>EPL</t>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>Acrylic</t>
+  </si>
+  <si>
+    <t>Container</t>
   </si>
 </sst>
 </file>
@@ -278,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00;(#,##0.00)"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -286,12 +289,26 @@
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <sz val="10.0"/>
     </font>
@@ -300,13 +317,13 @@
       <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
+      <sz val="10.0"/>
+      <color rgb="FF111111"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF111111"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -343,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -359,31 +376,43 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -869,7 +898,7 @@
       <c r="B15" s="3">
         <v>0.36</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="7">
         <v>10.0</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -915,7 +944,7 @@
       <c r="B17" s="3">
         <v>0.38</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="7">
         <v>10.0</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -1036,13 +1065,13 @@
       <c r="D22" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1059,13 +1088,13 @@
       <c r="D23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1076,289 +1105,314 @@
       <c r="B24" s="3">
         <v>16.0</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="12">
         <v>16.0</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="12">
-        <v>8.0</v>
-      </c>
-      <c r="B25" s="12">
-        <v>16.0</v>
-      </c>
-      <c r="C25" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="A25" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="B25" s="13">
+        <v>48.0</v>
+      </c>
+      <c r="C25" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="26">
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="A26" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="B26" s="13">
+        <v>48.0</v>
+      </c>
+      <c r="C26" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="27">
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="16">
+        <f>SUM(B5:B26)</f>
+        <v>160.83</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28">
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="B28" s="18">
+        <f>DIVIDE(B27,4)</f>
+        <v>40.2075</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29">
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30">
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
     </row>
     <row r="31">
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
     </row>
     <row r="32">
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
     </row>
     <row r="33">
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
     </row>
     <row r="34">
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
     </row>
     <row r="35">
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
     </row>
     <row r="36">
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
     </row>
     <row r="37">
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
     </row>
     <row r="38">
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
     </row>
     <row r="39">
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
     </row>
     <row r="40">
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
     </row>
     <row r="41">
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
     </row>
     <row r="42">
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
     </row>
     <row r="43">
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
     </row>
     <row r="44">
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
     </row>
     <row r="45">
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
     </row>
     <row r="46">
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
     </row>
     <row r="47">
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
     </row>
     <row r="48">
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
     </row>
     <row r="49">
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
     </row>
     <row r="50">
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
     </row>
     <row r="51">
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
     </row>
     <row r="52">
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
     </row>
     <row r="53">
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
     </row>
     <row r="54">
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
     </row>
     <row r="55">
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
     </row>
     <row r="56">
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
     </row>
     <row r="57">
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
     </row>
     <row r="58">
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
     </row>
     <row r="59">
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
     </row>
     <row r="60">
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
